--- a/frontend/web/hello_world.xlsx
+++ b/frontend/web/hello_world.xlsx
@@ -15,80 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
-  <si>
-    <t>Основные данные клиента</t>
-  </si>
-  <si>
-    <t>ФИО:</t>
-  </si>
-  <si>
-    <t>Васильев Виктор Геннадьевич</t>
-  </si>
-  <si>
-    <t>Адрес объекта:</t>
-  </si>
-  <si>
-    <t>Точно, Новгородская 45</t>
-  </si>
-  <si>
-    <t>Геокординаты объекта Широта</t>
-  </si>
-  <si>
-    <t>Геокординаты объекта Долгота</t>
-  </si>
-  <si>
-    <t>Телефоны клиента</t>
-  </si>
-  <si>
-    <t>a:2:{i:0;s:15:"8(963) 240-9945";i:1;s:14:"8(967)667-6667";}</t>
-  </si>
-  <si>
-    <t>8(769) 676-7676</t>
-  </si>
-  <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>an.viktory@gmail.com</t>
-  </si>
-  <si>
-    <t>Желаемая дата монтажа</t>
-  </si>
-  <si>
-    <t>12.12.2018</t>
-  </si>
-  <si>
-    <t>Номер сделки</t>
-  </si>
-  <si>
-    <t>Выбор станции</t>
-  </si>
-  <si>
-    <t>Высота сборного колодца, м</t>
-  </si>
-  <si>
-    <t>Кабель (сборный колодец), м</t>
-  </si>
-  <si>
-    <t>Монтажные работы</t>
-  </si>
-  <si>
-    <t>Подвод электропитания к станции</t>
-  </si>
-  <si>
-    <t>Тестовый</t>
-  </si>
-  <si>
-    <t>Трассировка</t>
-  </si>
-  <si>
-    <t>Тестовый2</t>
-  </si>
-  <si>
-    <t>Источник водоснабжения</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -105,7 +32,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -125,63 +52,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="medium">
-        <color rgb="FF808080"/>
-      </left>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +364,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:B19"/>
+      <selection activeCell="A1" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,136 +377,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" customHeight="1" ht="18">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" customHeight="1" ht="18">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" customHeight="1" ht="18">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>56.67787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" customHeight="1" ht="18">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45.99876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" customHeight="1" ht="18">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" customHeight="1" ht="18">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" customHeight="1" ht="18">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" customHeight="1" ht="18">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" customHeight="1" ht="18">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" customHeight="1" ht="18">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" customHeight="1" ht="18">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2"/>
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
